--- a/templates/dataplant/2EXT05_Imaging.xlsx
+++ b/templates/dataplant/2EXT05_Imaging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\sciebo - Eggels, Stella (s.eggels@fz-juelich.de)@fz-juelich.sciebo.de\SE\DataPLANT\ARCs und SWATE\ersatz von nfdi4pso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011504AE-3DCD-42A1-992D-4CF95A0A750B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBF1B5A-8A55-4F4F-A4AA-D1E57733E04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT05_Imaging" sheetId="1" r:id="rId1"/>
@@ -50,75 +50,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9067AD98-F807-46F1-B65C-78D939534A6A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=8fbc694a-5adf-4f97-8cd8-3bcedc37c98d</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{D1974B83-D944-4117-801C-84729455AFE6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{02797007-5AB2-4ADD-AD75-8CB047A962F4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{35AF1E6E-05FE-4332-908B-6B8AF48C62AB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{41EBBEBD-A6EA-43AA-B151-06478D8580DE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{7CB18E63-2746-4D05-B0E3-4FE009FBB56C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{9D2D702D-C5D8-4923-96D0-BAB4C98BA10B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{2537C110-689D-4E68-9394-DA299773C9A4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{395FF9A9-643B-425B-9A61-2EB6C0FE59C3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="376">
   <si>
     <t>Source Name</t>
   </si>
@@ -138,18 +138,6 @@
     <t>Parameter [microscopy sample preparation]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:1000143)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000143)</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000145)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000145)</t>
-  </si>
-  <si>
     <t>Parameter [generic experimental condition]</t>
   </si>
   <si>
@@ -159,15 +147,6 @@
     <t>Term Accession Number (MS:1001814)</t>
   </si>
   <si>
-    <t>Parameter [Antibody]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000117)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000117)</t>
-  </si>
-  <si>
     <t>Parameter [staining]</t>
   </si>
   <si>
@@ -180,21 +159,9 @@
     <t>Parameter [channel]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:1000113)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000113)</t>
-  </si>
-  <si>
     <t>Parameter [Gene Identifier]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:1000108)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000108)</t>
-  </si>
-  <si>
     <t>Parameter [gene name]</t>
   </si>
   <si>
@@ -204,15 +171,6 @@
     <t>Term Accession Number (MS:1000934)</t>
   </si>
   <si>
-    <t>Parameter [Genome reference sequence]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000026)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000026)</t>
-  </si>
-  <si>
     <t>Parameter [microscope slide]</t>
   </si>
   <si>
@@ -225,12 +183,6 @@
     <t>Parameter [Cover Slip]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:1000118)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000118)</t>
-  </si>
-  <si>
     <t>Parameter [liquid layer]</t>
   </si>
   <si>
@@ -243,30 +195,9 @@
     <t>Parameter [material fixation]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:1000144)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000144)</t>
-  </si>
-  <si>
-    <t>Parameter [Cover slip preparation (procedure)]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000119)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000119)</t>
-  </si>
-  <si>
     <t>Parameter [high content screening stage]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:1000115)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000115)</t>
-  </si>
-  <si>
     <t>Parameter [screening library]</t>
   </si>
   <si>
@@ -276,15 +207,6 @@
     <t>Term Accession Number (OBI:0100064)</t>
   </si>
   <si>
-    <t>Parameter [Library Version]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000116)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000116)</t>
-  </si>
-  <si>
     <t>Parameter [manufacturer]</t>
   </si>
   <si>
@@ -303,87 +225,12 @@
     <t>Term Accession Number (OBI:0000192)</t>
   </si>
   <si>
-    <t>Parameter [Well]</t>
-  </si>
-  <si>
-    <t>Term Source REF ()</t>
-  </si>
-  <si>
-    <t>Term Accession Number ()</t>
-  </si>
-  <si>
-    <t>Parameter [Well Number]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000102)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000102)</t>
-  </si>
-  <si>
     <t>Parameter [siRNA identifier]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:1000103)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000103)</t>
-  </si>
-  <si>
-    <t>Parameter [Sense Sequence]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000109)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000109)</t>
-  </si>
-  <si>
-    <t>Parameter [Antisense Sequence]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000110)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000110)</t>
-  </si>
-  <si>
     <t>Parameter [reagent design genome reference version]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:1000136)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000136)</t>
-  </si>
-  <si>
-    <t>Parameter [Compound name]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000104)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000104)</t>
-  </si>
-  <si>
-    <t>Parameter [Compound identifier]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000105)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000105)</t>
-  </si>
-  <si>
-    <t>Parameter [Compound class]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000106)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000106)</t>
-  </si>
-  <si>
     <t>Parameter [dose]</t>
   </si>
   <si>
@@ -405,48 +252,6 @@
     <t>Parameter [ORF identifier]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:1000107)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000107)</t>
-  </si>
-  <si>
-    <t>Parameter [Control Type]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000111)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000111)</t>
-  </si>
-  <si>
-    <t>Parameter [Control specification]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000137)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000137)</t>
-  </si>
-  <si>
-    <t>Parameter [Quality Control]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000112)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000112)</t>
-  </si>
-  <si>
-    <t>Parameter [Quality Control Comments]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:1000138)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000138)</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -588,9 +393,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>NFDI4PSO</t>
-  </si>
-  <si>
     <t>o</t>
   </si>
   <si>
@@ -603,21 +405,6 @@
     <t>PATO:0000165</t>
   </si>
   <si>
-    <t>NFDI4PSO:1000107</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000111</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000137</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000112</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000138</t>
-  </si>
-  <si>
     <t>PATO</t>
   </si>
   <si>
@@ -627,33 +414,6 @@
     <t>http://purl.obolibrary.org/obo/PATO_0000165</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000107</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000111</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000137</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000112</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000138</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000143</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000143</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000145</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000145</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
@@ -663,54 +423,24 @@
     <t>http://purl.obolibrary.org/obo/MS_1001814</t>
   </si>
   <si>
-    <t>NFDI4PSO:1000117</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000117</t>
-  </si>
-  <si>
     <t>OBI:0302887</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0302887</t>
   </si>
   <si>
-    <t>NFDI4PSO:1000113</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000113</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000108</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000108</t>
-  </si>
-  <si>
     <t>MS:1000934</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/MS_1000934</t>
   </si>
   <si>
-    <t>NFDI4PSO:0000026</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000026</t>
-  </si>
-  <si>
     <t>OBI:0400170</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0400170</t>
   </si>
   <si>
-    <t>NFDI4PSO:1000118</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000118</t>
-  </si>
-  <si>
     <t>ENVO:01001273</t>
   </si>
   <si>
@@ -720,36 +450,12 @@
     <t>http://purl.obolibrary.org/obo/ENVO_01001273</t>
   </si>
   <si>
-    <t>NFDI4PSO:1000144</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000144</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000119</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000119</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000115</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000115</t>
-  </si>
-  <si>
     <t>OBI:0100064</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0100064</t>
   </si>
   <si>
-    <t>NFDI4PSO:1000116</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000116</t>
-  </si>
-  <si>
     <t>OBI:0000835</t>
   </si>
   <si>
@@ -762,60 +468,6 @@
     <t>http://purl.obolibrary.org/obo/OBI_0000192</t>
   </si>
   <si>
-    <t>NFDI4PSO:1000101</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000101</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000102</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000102</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000103</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000103</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000109</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000109</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000110</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000110</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000136</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000136</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000104</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000104</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000105</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000105</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000106</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000106</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -1206,12 +858,6 @@
     <t>no treatment</t>
   </si>
   <si>
-    <t>1.0.2</t>
-  </si>
-  <si>
-    <t>Characteristics [prepared organism part]</t>
-  </si>
-  <si>
     <t>DataPLANT</t>
   </si>
   <si>
@@ -1225,6 +871,390 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000143)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000143)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000143</t>
+  </si>
+  <si>
+    <t>Characteristic [prepared organism part]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000145)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000145)</t>
+  </si>
+  <si>
+    <t>Parameter [antibody]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000117)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000117)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000113)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000113)</t>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C48664)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C48664)</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>Parameter [genome reference sequence]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000026)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000026)</t>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C126370)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C126370)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000144)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000144)</t>
+  </si>
+  <si>
+    <t>Parameter [cover slip preparation (procedure)]</t>
+  </si>
+  <si>
+    <t>Term Source REF (SCTID:71661000)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (SCTID:71661000)</t>
+  </si>
+  <si>
+    <t>Term Source REF (EFO:0007555)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (EFO:0007555)</t>
+  </si>
+  <si>
+    <t>Parameter [library version]</t>
+  </si>
+  <si>
+    <t>Parameter [well]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000101)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000101)</t>
+  </si>
+  <si>
+    <t>Parameter [well Number]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000102)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000102)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000103)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000103)</t>
+  </si>
+  <si>
+    <t>Parameter [sense sequence]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000109)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000109)</t>
+  </si>
+  <si>
+    <t>Parameter [antisense sequence]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000110)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000110)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000136)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000136)</t>
+  </si>
+  <si>
+    <t>Parameter [compound name]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000104)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000104)</t>
+  </si>
+  <si>
+    <t>Parameter [compound identifier]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000105)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000105)</t>
+  </si>
+  <si>
+    <t>Parameter [compound class]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000106)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000106)</t>
+  </si>
+  <si>
+    <t>Parameter [control type]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000111)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000111)</t>
+  </si>
+  <si>
+    <t>Parameter [control specification]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000137)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000137)</t>
+  </si>
+  <si>
+    <t>Parameter [quality control]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000112)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000112)</t>
+  </si>
+  <si>
+    <t>Parameter [quality control comments]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000138)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000138)</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000145</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000117</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000113</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C48664</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_0000026</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C126370</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000144</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/SCTID_71661000</t>
+  </si>
+  <si>
+    <t>SCTID</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EFO_0007555</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000116)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000116)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000116</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000101</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000102</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000103</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000109</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000110</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000136</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000104</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000105</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000106</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000111</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000137</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000112</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000138</t>
+  </si>
+  <si>
+    <t>DPBO</t>
+  </si>
+  <si>
+    <t>DPBO:1000143</t>
+  </si>
+  <si>
+    <t>DPBO:1000145</t>
+  </si>
+  <si>
+    <t>DPBO:1000117</t>
+  </si>
+  <si>
+    <t>DPBO:1000113</t>
+  </si>
+  <si>
+    <t>NCIT:C48664</t>
+  </si>
+  <si>
+    <t>DPBO:0000026</t>
+  </si>
+  <si>
+    <t>NCIT:C126370</t>
+  </si>
+  <si>
+    <t>DPBO:1000144</t>
+  </si>
+  <si>
+    <t>SCTID:71661000</t>
+  </si>
+  <si>
+    <t>EFO:0007555</t>
+  </si>
+  <si>
+    <t>EFO</t>
+  </si>
+  <si>
+    <t>DPBO:1000116</t>
+  </si>
+  <si>
+    <t>DPBO:1000101</t>
+  </si>
+  <si>
+    <t>DPBO:1000102</t>
+  </si>
+  <si>
+    <t>DPBO:1000103</t>
+  </si>
+  <si>
+    <t>DPBO:1000109</t>
+  </si>
+  <si>
+    <t>DPBO:1000110</t>
+  </si>
+  <si>
+    <t>DPBO:1000136</t>
+  </si>
+  <si>
+    <t>DPBO:1000104</t>
+  </si>
+  <si>
+    <t>DPBO:1000105</t>
+  </si>
+  <si>
+    <t>DPBO:1000106</t>
+  </si>
+  <si>
+    <t>DPBO:1000111</t>
+  </si>
+  <si>
+    <t>DPBO:1000137</t>
+  </si>
+  <si>
+    <t>DPBO:1000112</t>
+  </si>
+  <si>
+    <t>DPBO:1000138</t>
+  </si>
+  <si>
+    <t>Parameter [library Version]</t>
+  </si>
+  <si>
+    <t>Parameter [sense Sequence]</t>
+  </si>
+  <si>
+    <t>Parameter [antisense Sequence]</t>
+  </si>
+  <si>
+    <t>Parameter [control Type]</t>
+  </si>
+  <si>
+    <t>Parameter [quality Control]</t>
+  </si>
+  <si>
+    <t>Parameter [quality Control Comments]</t>
+  </si>
+  <si>
+    <t>Term Source REF (data:2795)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (data:2795)</t>
+  </si>
+  <si>
+    <t>data:2795</t>
+  </si>
+  <si>
+    <t>EDAM</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_2795</t>
   </si>
 </sst>
 </file>
@@ -1248,10 +1278,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1391,10 +1423,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1438,11 +1471,224 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="69">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1467,111 +1713,111 @@
   <autoFilter ref="A1:DC6" xr:uid="{7A44DFED-6FA7-46AF-B778-EFE22193F0A0}"/>
   <tableColumns count="107">
     <tableColumn id="1" xr3:uid="{DE9BEB74-08E0-478B-A4DE-942BC7303645}" name="Source Name"/>
-    <tableColumn id="3" xr3:uid="{53472B8D-A3E1-44AA-9929-726B4F112D5D}" name="Parameter [microscopy sample preparation]"/>
-    <tableColumn id="4" xr3:uid="{A5295512-8F1B-4B1B-B7D1-2F211EB2927E}" name="Term Source REF (NFDI4PSO:1000143)"/>
-    <tableColumn id="5" xr3:uid="{3485B6B4-00D4-45BD-B9A0-B528CA1D2829}" name="Term Accession Number (NFDI4PSO:1000143)"/>
-    <tableColumn id="6" xr3:uid="{6A82CAAF-69A0-4372-86B5-B3CED79238E8}" name="Characteristics [prepared organism part]"/>
-    <tableColumn id="7" xr3:uid="{11A28BF1-8555-4E0C-BCD3-502CB624EFFD}" name="Term Source REF (NFDI4PSO:1000145)"/>
-    <tableColumn id="8" xr3:uid="{6B4AFA59-744F-4E29-8F32-D181B223F6D3}" name="Term Accession Number (NFDI4PSO:1000145)"/>
+    <tableColumn id="3" xr3:uid="{FE241829-17F4-4280-8754-E14B59448DAB}" name="Parameter [microscopy sample preparation]"/>
+    <tableColumn id="4" xr3:uid="{AE194152-1C71-4580-9E5E-3A53AAD6A231}" name="Term Source REF (DPBO:1000143)" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{36E8ADAA-1313-43B4-8F24-31DEA38E5A82}" name="Term Accession Number (DPBO:1000143)" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{D59DA0AF-24B8-4CD3-964C-8AC9DF7528B3}" name="Characteristic [prepared organism part]" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{0C8DFD38-F6A9-485E-9EE7-64267C799771}" name="Term Source REF (DPBO:1000145)" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{8C5DEE61-A0BF-4BEF-84CD-9E4F0C5F73DD}" name="Term Accession Number (DPBO:1000145)" dataDxfId="64"/>
     <tableColumn id="15" xr3:uid="{E60EC25B-14FC-49A1-A5D1-D34A83B91475}" name="Parameter [generic experimental condition]"/>
     <tableColumn id="16" xr3:uid="{821E867C-542E-4360-BE4A-E6FA671E60CE}" name="Term Source REF (MS:1001814)"/>
     <tableColumn id="17" xr3:uid="{E34D7500-4BCF-47D6-9258-047ED0DC2443}" name="Term Accession Number (MS:1001814)"/>
-    <tableColumn id="18" xr3:uid="{9E62595C-1C16-467E-A516-21FA156604EB}" name="Parameter [Antibody]"/>
-    <tableColumn id="19" xr3:uid="{4CC42FA4-10DA-49AE-AE56-91C0DDB3B624}" name="Term Source REF (NFDI4PSO:1000117)"/>
-    <tableColumn id="20" xr3:uid="{D8725EB9-FA8C-4212-A2FC-C5049485DC8B}" name="Term Accession Number (NFDI4PSO:1000117)"/>
+    <tableColumn id="9" xr3:uid="{65749B17-CAD2-4E23-9906-E73460A38B8B}" name="Parameter [antibody]"/>
+    <tableColumn id="10" xr3:uid="{8E453E26-47CA-4E75-AAF0-330086B2BF34}" name="Term Source REF (DPBO:1000117)" dataDxfId="63"/>
+    <tableColumn id="11" xr3:uid="{64448CB5-2E0C-4F5B-9CFA-52A58E2A969D}" name="Term Accession Number (DPBO:1000117)" dataDxfId="62"/>
     <tableColumn id="21" xr3:uid="{37C75ECE-F39A-4C1A-ABF9-3F2B971BA478}" name="Parameter [staining]"/>
     <tableColumn id="22" xr3:uid="{49A980C0-555C-4310-BEEB-B5BCF9061AA6}" name="Term Source REF (OBI:0302887)"/>
     <tableColumn id="23" xr3:uid="{10EFC558-EA60-4473-8C5D-81827BEB4BF7}" name="Term Accession Number (OBI:0302887)"/>
-    <tableColumn id="24" xr3:uid="{8103BC8C-DEA3-499C-B689-45573805F5AA}" name="Parameter [channel]"/>
-    <tableColumn id="25" xr3:uid="{F0F4742D-8D6B-4CB2-807D-362D5E73B86D}" name="Term Source REF (NFDI4PSO:1000113)"/>
-    <tableColumn id="26" xr3:uid="{6D844E06-0CC1-4761-AE6A-3B9F342E15EA}" name="Term Accession Number (NFDI4PSO:1000113)"/>
-    <tableColumn id="27" xr3:uid="{F8843647-72A7-4892-BF0C-5015388074CA}" name="Parameter [Gene Identifier]"/>
-    <tableColumn id="28" xr3:uid="{1BEF9B75-2829-44C4-8FF2-569216DD2533}" name="Term Source REF (NFDI4PSO:1000108)"/>
-    <tableColumn id="29" xr3:uid="{8A810697-4773-4A24-97DF-1E8F183C0CE4}" name="Term Accession Number (NFDI4PSO:1000108)"/>
-    <tableColumn id="30" xr3:uid="{FED61E91-3B90-484C-9463-F1E72A29EBCB}" name="Parameter [gene name]"/>
-    <tableColumn id="31" xr3:uid="{AC5530DB-23E4-45FA-BDC9-52AD644EEA8E}" name="Term Source REF (MS:1000934)"/>
-    <tableColumn id="32" xr3:uid="{E0A9519F-E430-498C-B452-F056EA438230}" name="Term Accession Number (MS:1000934)"/>
-    <tableColumn id="33" xr3:uid="{A33BA62B-6572-43AA-B763-447B9D47D9D4}" name="Parameter [Genome reference sequence]"/>
-    <tableColumn id="34" xr3:uid="{5D4EB7AF-5718-4BF1-9479-3928091F08D9}" name="Term Source REF (NFDI4PSO:0000026)"/>
-    <tableColumn id="35" xr3:uid="{AB2283D7-C29F-4C8F-9132-BF70DDEA6EA4}" name="Term Accession Number (NFDI4PSO:0000026)"/>
+    <tableColumn id="12" xr3:uid="{DE11FABC-AB60-4BCF-AC0D-ACF615919C67}" name="Parameter [channel]"/>
+    <tableColumn id="13" xr3:uid="{90D9E478-B9A8-49AB-AC63-A6FE60F982FD}" name="Term Source REF (DPBO:1000113)" dataDxfId="61"/>
+    <tableColumn id="14" xr3:uid="{987FC555-4D11-419F-B6B7-C5F0B3BB02B3}" name="Term Accession Number (DPBO:1000113)" dataDxfId="60"/>
+    <tableColumn id="18" xr3:uid="{5A353115-710B-4FE3-B679-A63A11929C41}" name="Parameter [Gene Identifier]" dataDxfId="59"/>
+    <tableColumn id="19" xr3:uid="{CBCAA621-479D-4E37-B819-3717B0EE3077}" name="Term Source REF (NCIT:C48664)" dataDxfId="58"/>
+    <tableColumn id="20" xr3:uid="{1781F0E6-8BAA-4388-BEC3-6DF1C91250A2}" name="Term Accession Number (NCIT:C48664)" dataDxfId="57"/>
+    <tableColumn id="24" xr3:uid="{D4FA349F-55C9-40C6-92E3-9AA54582425E}" name="Parameter [gene name]" dataDxfId="56"/>
+    <tableColumn id="25" xr3:uid="{353F8D3C-C1C6-4010-8F35-C019DF24C870}" name="Term Source REF (MS:1000934)" dataDxfId="55"/>
+    <tableColumn id="26" xr3:uid="{9A422122-925B-4E75-9884-52701E62EF5F}" name="Term Accession Number (MS:1000934)" dataDxfId="54"/>
+    <tableColumn id="27" xr3:uid="{45E1CD14-29DB-4005-AF67-027D2EB50C84}" name="Parameter [genome reference sequence]" dataDxfId="53"/>
+    <tableColumn id="28" xr3:uid="{D3EE6912-C2A7-4049-AD56-6582CAB1EDB9}" name="Term Source REF (DPBO:0000026)" dataDxfId="52"/>
+    <tableColumn id="29" xr3:uid="{B95EB808-918C-478B-9C09-37FDAE436DA0}" name="Term Accession Number (DPBO:0000026)" dataDxfId="51"/>
     <tableColumn id="36" xr3:uid="{9F6C1DDA-9DE4-4630-B715-853972AA9FC4}" name="Parameter [microscope slide]"/>
     <tableColumn id="37" xr3:uid="{10DF4BEC-D68A-4FFA-88AE-2D276487E8B0}" name="Term Source REF (OBI:0400170)"/>
     <tableColumn id="38" xr3:uid="{5D0306B2-F0A4-48C3-8299-847EC2AF4B4D}" name="Term Accession Number (OBI:0400170)"/>
-    <tableColumn id="39" xr3:uid="{45AFB439-93EB-48F8-9B8A-A8A6E566ED79}" name="Parameter [Cover Slip]"/>
-    <tableColumn id="40" xr3:uid="{071B9A7D-1544-407F-86EC-29BAF61A779F}" name="Term Source REF (NFDI4PSO:1000118)"/>
-    <tableColumn id="41" xr3:uid="{0CDF41AB-C831-40D8-99C2-8ECE9301995F}" name="Term Accession Number (NFDI4PSO:1000118)"/>
+    <tableColumn id="30" xr3:uid="{8FF3C30D-A42D-4580-AE22-56F30539DBDB}" name="Parameter [Cover Slip]"/>
+    <tableColumn id="31" xr3:uid="{59B12D66-F05C-4CE2-9E6D-BDA59316E61B}" name="Term Source REF (NCIT:C126370)" dataDxfId="50"/>
+    <tableColumn id="32" xr3:uid="{3931673D-B28E-4CBF-AF67-F787B6E9F8F7}" name="Term Accession Number (NCIT:C126370)" dataDxfId="49"/>
     <tableColumn id="42" xr3:uid="{AB549116-8BDB-4F94-862B-8F0980CB9E0F}" name="Parameter [liquid layer]"/>
     <tableColumn id="43" xr3:uid="{32CC4215-DEED-4500-81FE-27B6A9A57C2C}" name="Term Source REF (ENVO:01001273)"/>
     <tableColumn id="44" xr3:uid="{1712A8E0-4F23-4861-92E8-A14748D77B10}" name="Term Accession Number (ENVO:01001273)"/>
-    <tableColumn id="45" xr3:uid="{7818C3FB-AEC6-488E-A424-0B94942EFFED}" name="Parameter [material fixation]"/>
-    <tableColumn id="46" xr3:uid="{60AE4AB9-B69F-4A08-A6AA-2EFA27475033}" name="Term Source REF (NFDI4PSO:1000144)"/>
-    <tableColumn id="47" xr3:uid="{5A37D01B-5F6D-4F9B-A27E-AE120038CFB6}" name="Term Accession Number (NFDI4PSO:1000144)"/>
-    <tableColumn id="48" xr3:uid="{8ABAC161-C4D1-4A59-96C8-0134D1298F19}" name="Parameter [Cover slip preparation (procedure)]"/>
-    <tableColumn id="49" xr3:uid="{C0491329-5AD1-431D-AE86-50FAEFEF6D70}" name="Term Source REF (NFDI4PSO:1000119)"/>
-    <tableColumn id="50" xr3:uid="{66722969-948C-41DA-9883-D5F134A5B5DD}" name="Term Accession Number (NFDI4PSO:1000119)"/>
-    <tableColumn id="54" xr3:uid="{F473EC21-6A05-4D5A-8F9B-5527D4319ED0}" name="Parameter [high content screening stage]"/>
-    <tableColumn id="55" xr3:uid="{C7163601-6E5E-43DC-B38E-D63B843DABAB}" name="Term Source REF (NFDI4PSO:1000115)"/>
-    <tableColumn id="56" xr3:uid="{E4F582C5-151F-45FE-8DB5-BBD70C147C46}" name="Term Accession Number (NFDI4PSO:1000115)"/>
+    <tableColumn id="33" xr3:uid="{18E8B37A-8128-4670-A9BB-AF5C3AE0990D}" name="Parameter [material fixation]"/>
+    <tableColumn id="34" xr3:uid="{D59B422D-B6D0-4376-AA52-F03AE0ABB051}" name="Term Source REF (DPBO:1000144)" dataDxfId="48"/>
+    <tableColumn id="35" xr3:uid="{20F3346C-0128-4556-B8B4-2FF3A4009D34}" name="Term Accession Number (DPBO:1000144)" dataDxfId="47"/>
+    <tableColumn id="39" xr3:uid="{1D80095F-77A2-4E9D-9A4C-2CEFB444A4FE}" name="Parameter [cover slip preparation (procedure)]" dataDxfId="46"/>
+    <tableColumn id="40" xr3:uid="{0F3A3C3D-021F-4B76-A59B-142788BB17A2}" name="Term Source REF (SCTID:71661000)" dataDxfId="45"/>
+    <tableColumn id="41" xr3:uid="{039A4C48-236D-40C1-83C7-BC6162CBCA72}" name="Term Accession Number (SCTID:71661000)" dataDxfId="44"/>
+    <tableColumn id="45" xr3:uid="{658DD11D-A58C-43C8-AB51-C12301DD5956}" name="Parameter [high content screening stage]" dataDxfId="43"/>
+    <tableColumn id="46" xr3:uid="{494EF59F-07CB-49C6-89F1-9BF3CD2B6F12}" name="Term Source REF (EFO:0007555)" dataDxfId="42"/>
+    <tableColumn id="47" xr3:uid="{5CEE7E74-685F-439B-A02E-71A2154FD2B8}" name="Term Accession Number (EFO:0007555)" dataDxfId="41"/>
     <tableColumn id="57" xr3:uid="{BC0806A2-D559-40B9-9C0C-CD5E36361AF6}" name="Parameter [screening library]"/>
     <tableColumn id="58" xr3:uid="{CA579F08-6214-4A54-AB11-1F103ACF16F3}" name="Term Source REF (OBI:0100064)"/>
     <tableColumn id="59" xr3:uid="{802963D2-A373-4640-A47E-89FC41CA183E}" name="Term Accession Number (OBI:0100064)"/>
-    <tableColumn id="60" xr3:uid="{83CF9156-10AD-4AFF-8046-CFE08A2EB40B}" name="Parameter [Library Version]"/>
-    <tableColumn id="61" xr3:uid="{0867FC98-4C1E-43E9-8FF5-E00C80F0DF80}" name="Term Source REF (NFDI4PSO:1000116)"/>
-    <tableColumn id="62" xr3:uid="{1A7F4DCE-E1DD-46EB-83E5-EC7B8D8E12BE}" name="Term Accession Number (NFDI4PSO:1000116)"/>
+    <tableColumn id="108" xr3:uid="{366E9E4D-301C-4F53-B1D0-958058299636}" name="Parameter [library version]"/>
+    <tableColumn id="109" xr3:uid="{6FA32848-5914-4134-98CC-3D250C08422C}" name="Term Source REF (DPBO:1000116)" dataDxfId="40"/>
+    <tableColumn id="110" xr3:uid="{190DA6FB-34B8-4628-96B8-C9C80486D653}" name="Term Accession Number (DPBO:1000116)" dataDxfId="39"/>
     <tableColumn id="63" xr3:uid="{1CFE1E61-B412-42FF-9EEC-818E796ABD1D}" name="Parameter [manufacturer]"/>
     <tableColumn id="64" xr3:uid="{1BB85FCE-CB72-464E-B595-69E2032D61AB}" name="Term Source REF (OBI:0000835)"/>
     <tableColumn id="65" xr3:uid="{98369148-BF29-4257-91A1-54CE0765D5A4}" name="Term Accession Number (OBI:0000835)"/>
     <tableColumn id="66" xr3:uid="{EE315C29-35B8-48AC-859F-502625FC2BEE}" name="Parameter [microtiter plate]"/>
     <tableColumn id="67" xr3:uid="{BAFBADC4-C8B3-4BB6-BBBF-E19ACA1B6E51}" name="Term Source REF (OBI:0000192)"/>
     <tableColumn id="68" xr3:uid="{68DB78FB-AB71-4A84-99E4-6C6E403452D4}" name="Term Accession Number (OBI:0000192)"/>
-    <tableColumn id="69" xr3:uid="{9200D190-CF82-4515-93A8-D95C31109943}" name="Parameter [Well]"/>
-    <tableColumn id="70" xr3:uid="{386E026D-42A0-4B0C-AC64-6E7440FDFF2D}" name="Term Source REF ()"/>
-    <tableColumn id="71" xr3:uid="{0CF6673F-87E1-440B-86EE-E34C05DE0151}" name="Term Accession Number ()"/>
-    <tableColumn id="72" xr3:uid="{71E24A33-D53F-4536-91DE-9C03CFF4CD1F}" name="Parameter [Well Number]"/>
-    <tableColumn id="73" xr3:uid="{A2887EC8-8B5D-47CC-8DBA-02675952BF7F}" name="Term Source REF (NFDI4PSO:1000102)"/>
-    <tableColumn id="74" xr3:uid="{DD98D80A-DB0A-4507-819F-9DBC8CFBD8CB}" name="Term Accession Number (NFDI4PSO:1000102)"/>
-    <tableColumn id="75" xr3:uid="{16FA6354-05B0-417D-9023-C537BE0B8E73}" name="Parameter [siRNA identifier]"/>
-    <tableColumn id="76" xr3:uid="{B95C7F25-2CD0-47B7-A6A9-D420B7471A46}" name="Term Source REF (NFDI4PSO:1000103)"/>
-    <tableColumn id="77" xr3:uid="{E13D3F70-8972-47A2-8A18-A9FB62A41455}" name="Term Accession Number (NFDI4PSO:1000103)"/>
-    <tableColumn id="78" xr3:uid="{A4D0A5FB-968D-4FDC-85AF-E222D570E277}" name="Parameter [Sense Sequence]"/>
-    <tableColumn id="79" xr3:uid="{E4B0939B-B85C-4D54-A40B-5FB1F639E4AE}" name="Term Source REF (NFDI4PSO:1000109)"/>
-    <tableColumn id="80" xr3:uid="{E01B8ECA-C2FD-41EC-889F-F697550A74CD}" name="Term Accession Number (NFDI4PSO:1000109)"/>
-    <tableColumn id="81" xr3:uid="{1CE6FF31-C8FA-4AC7-9BE7-68777A159D46}" name="Parameter [Antisense Sequence]"/>
-    <tableColumn id="82" xr3:uid="{27ED5BE6-AF36-4F19-AB3A-00CB1A6FA03C}" name="Term Source REF (NFDI4PSO:1000110)"/>
-    <tableColumn id="83" xr3:uid="{5034C76C-9399-4CA9-958A-B8199CBDDE69}" name="Term Accession Number (NFDI4PSO:1000110)"/>
-    <tableColumn id="84" xr3:uid="{860CC7CF-13E6-46B5-BDAE-506D954C032C}" name="Parameter [reagent design genome reference version]"/>
-    <tableColumn id="85" xr3:uid="{D06F17D4-C29A-49A0-A02F-86817B51707B}" name="Term Source REF (NFDI4PSO:1000136)"/>
-    <tableColumn id="86" xr3:uid="{A2A1C64C-A04B-46AE-8085-8F9D49CEE3D4}" name="Term Accession Number (NFDI4PSO:1000136)"/>
-    <tableColumn id="87" xr3:uid="{2E6A9AC9-7986-4ECD-BC96-EF79FBEF581E}" name="Parameter [Compound name]"/>
-    <tableColumn id="88" xr3:uid="{7BC3AC97-5808-4203-AEE9-1BE6BF45DD3F}" name="Term Source REF (NFDI4PSO:1000104)"/>
-    <tableColumn id="89" xr3:uid="{90D2D4DD-4368-4E03-82F5-36B2344D2CD1}" name="Term Accession Number (NFDI4PSO:1000104)"/>
-    <tableColumn id="90" xr3:uid="{3864EE7B-2A2C-4980-8162-273ADE3A609B}" name="Parameter [Compound identifier]"/>
-    <tableColumn id="91" xr3:uid="{154F3012-7DFD-4547-95AA-5C6377479C0F}" name="Term Source REF (NFDI4PSO:1000105)"/>
-    <tableColumn id="92" xr3:uid="{FFDECB7F-6728-42D7-AFFF-565E3801DFA5}" name="Term Accession Number (NFDI4PSO:1000105)"/>
-    <tableColumn id="93" xr3:uid="{04DCA19B-1328-4DB2-ADC5-D0869F18D85D}" name="Parameter [Compound class]"/>
-    <tableColumn id="94" xr3:uid="{B8A90EA2-97F8-4755-A624-84814BCA5AE9}" name="Term Source REF (NFDI4PSO:1000106)"/>
-    <tableColumn id="95" xr3:uid="{F29B43C2-4AC1-4A0F-BF7C-B01527CB629F}" name="Term Accession Number (NFDI4PSO:1000106)"/>
+    <tableColumn id="51" xr3:uid="{D5FC3886-7AE2-4EEC-922A-75F040D08378}" name="Parameter [well]"/>
+    <tableColumn id="52" xr3:uid="{5AC99163-FF71-45F0-A3F3-CCA1CAF71287}" name="Term Source REF (DPBO:1000101)" dataDxfId="38"/>
+    <tableColumn id="53" xr3:uid="{2F510FEF-E535-4D83-8EE3-B721DDDE63A2}" name="Term Accession Number (DPBO:1000101)" dataDxfId="37"/>
+    <tableColumn id="54" xr3:uid="{E0C8C365-92ED-41C0-9A4A-5FFDEA66D6F5}" name="Parameter [well Number]" dataDxfId="36"/>
+    <tableColumn id="55" xr3:uid="{1780826D-9204-4409-80E0-107B5000D6F8}" name="Term Source REF (DPBO:1000102)" dataDxfId="35"/>
+    <tableColumn id="56" xr3:uid="{215EDCA2-DFA2-4AD7-957E-02E9CE3E5B88}" name="Term Accession Number (DPBO:1000102)" dataDxfId="34"/>
+    <tableColumn id="60" xr3:uid="{E1FF6413-2B37-4503-930C-336A9B84EBD3}" name="Parameter [siRNA identifier]" dataDxfId="33"/>
+    <tableColumn id="61" xr3:uid="{E0829DB7-5020-4ADD-B91D-DD2FBC2ED689}" name="Term Source REF (DPBO:1000103)" dataDxfId="32"/>
+    <tableColumn id="62" xr3:uid="{F8A2F53F-1D96-4D0B-88BF-A1BE667B4BA9}" name="Term Accession Number (DPBO:1000103)" dataDxfId="31"/>
+    <tableColumn id="69" xr3:uid="{E7305263-877F-45B1-9641-5028FC179E2C}" name="Parameter [sense sequence]" dataDxfId="30"/>
+    <tableColumn id="70" xr3:uid="{5C1BBA89-D834-434E-85DD-2966D5208B29}" name="Term Source REF (DPBO:1000109)" dataDxfId="29"/>
+    <tableColumn id="71" xr3:uid="{4F801BDC-61B3-41EE-B992-D402631FC438}" name="Term Accession Number (DPBO:1000109)" dataDxfId="28"/>
+    <tableColumn id="72" xr3:uid="{7F08E051-9761-4279-8E5A-61004C79D92C}" name="Parameter [antisense sequence]" dataDxfId="27"/>
+    <tableColumn id="73" xr3:uid="{9A98F60E-B676-455A-B2E9-0D75BB577F91}" name="Term Source REF (DPBO:1000110)" dataDxfId="26"/>
+    <tableColumn id="74" xr3:uid="{8280A833-4851-4C1F-97BB-F33F7D58CD34}" name="Term Accession Number (DPBO:1000110)" dataDxfId="25"/>
+    <tableColumn id="75" xr3:uid="{8BE1DC0D-8BFD-4B3E-A61E-FBC2EEEFB6C1}" name="Parameter [reagent design genome reference version]" dataDxfId="24"/>
+    <tableColumn id="76" xr3:uid="{8D6257D6-9C3E-4B7F-A828-2622E20BCCA5}" name="Term Source REF (DPBO:1000136)" dataDxfId="23"/>
+    <tableColumn id="77" xr3:uid="{348C1CC7-C55C-46DF-B114-554AAE2F7648}" name="Term Accession Number (DPBO:1000136)" dataDxfId="22"/>
+    <tableColumn id="78" xr3:uid="{375E1BD9-B5E5-4E5B-AE00-50F516F4BE0B}" name="Parameter [compound name]" dataDxfId="21"/>
+    <tableColumn id="79" xr3:uid="{01D1E538-EA4C-4A42-A936-F05D6E3BA06C}" name="Term Source REF (DPBO:1000104)" dataDxfId="20"/>
+    <tableColumn id="80" xr3:uid="{F478761B-7B81-45F4-B64C-3C86464F3494}" name="Term Accession Number (DPBO:1000104)" dataDxfId="19"/>
+    <tableColumn id="81" xr3:uid="{4763D5B3-276F-4E2C-852C-60988EE6457C}" name="Parameter [compound identifier]" dataDxfId="18"/>
+    <tableColumn id="82" xr3:uid="{4A75DBF0-1211-48DE-B886-9F2A6C6CB80F}" name="Term Source REF (DPBO:1000105)" dataDxfId="17"/>
+    <tableColumn id="83" xr3:uid="{BDF0F559-649F-472E-BDD8-DFFBA94B84DA}" name="Term Accession Number (DPBO:1000105)" dataDxfId="16"/>
+    <tableColumn id="84" xr3:uid="{E2DB6EBB-BA19-407F-ABE0-65A086C3FA07}" name="Parameter [compound class]" dataDxfId="15"/>
+    <tableColumn id="85" xr3:uid="{1C9F64ED-0D8A-4417-AF84-D2FB0788B8B3}" name="Term Source REF (DPBO:1000106)" dataDxfId="14"/>
+    <tableColumn id="86" xr3:uid="{02507414-EB19-4BAD-A031-240DA6076C37}" name="Term Accession Number (DPBO:1000106)" dataDxfId="13"/>
     <tableColumn id="96" xr3:uid="{B0066872-5AD9-48AB-8AD8-D4FE01CC4C38}" name="Parameter [dose]"/>
     <tableColumn id="97" xr3:uid="{6CF20EC1-3D4D-4858-A2E5-BF4373CCFDF2}" name="Term Source REF (OBI:0000984)"/>
     <tableColumn id="98" xr3:uid="{99FC499B-1D0F-4555-A66E-155319A1E898}" name="Term Accession Number (OBI:0000984)"/>
     <tableColumn id="99" xr3:uid="{6FB4A31B-293D-4B71-830D-282D85649B79}" name="Parameter [time]"/>
     <tableColumn id="100" xr3:uid="{6FD81A5D-2263-4CF6-B6F2-A5589D8B057A}" name="Term Source REF (PATO:0000165)"/>
     <tableColumn id="101" xr3:uid="{10AD2F5C-28FB-4ABD-988F-9645DDA18F17}" name="Term Accession Number (PATO:0000165)"/>
-    <tableColumn id="102" xr3:uid="{3D8145F3-EA4E-4E56-8A96-26095C2F7F02}" name="Parameter [ORF identifier]"/>
-    <tableColumn id="103" xr3:uid="{C9B9F527-43AF-4790-AC4E-4D6BA95B8DFF}" name="Term Source REF (NFDI4PSO:1000107)"/>
-    <tableColumn id="104" xr3:uid="{60A63003-A83B-4DD0-980B-B03612B14D64}" name="Term Accession Number (NFDI4PSO:1000107)"/>
-    <tableColumn id="105" xr3:uid="{1D1440B6-CBB6-4571-9A5D-756D19427C28}" name="Parameter [Control Type]"/>
-    <tableColumn id="106" xr3:uid="{C184335E-CF8C-4956-A652-EC9C849E3C5C}" name="Term Source REF (NFDI4PSO:1000111)"/>
-    <tableColumn id="107" xr3:uid="{A19B1713-7838-42E5-8397-48B7176A7A13}" name="Term Accession Number (NFDI4PSO:1000111)"/>
-    <tableColumn id="108" xr3:uid="{73D8FEE0-5C23-4CC9-8F62-B26B5A7E635E}" name="Parameter [Control specification]"/>
-    <tableColumn id="109" xr3:uid="{238E0947-81B3-4356-8DE8-37A06085BA9E}" name="Term Source REF (NFDI4PSO:1000137)"/>
-    <tableColumn id="110" xr3:uid="{35EA3B4E-BC1D-4C8B-B585-D93133F69DF4}" name="Term Accession Number (NFDI4PSO:1000137)"/>
-    <tableColumn id="111" xr3:uid="{00B07A2C-E959-4150-A488-3E4B455DA1B4}" name="Parameter [Quality Control]"/>
-    <tableColumn id="112" xr3:uid="{00747E26-17C7-4373-B875-FF93C563DF27}" name="Term Source REF (NFDI4PSO:1000112)"/>
-    <tableColumn id="113" xr3:uid="{7515A2AA-46A2-44C8-8259-A94487132CF3}" name="Term Accession Number (NFDI4PSO:1000112)"/>
-    <tableColumn id="114" xr3:uid="{7BDFBCE5-A2AD-4811-BA6F-FFB0B1B3D79F}" name="Parameter [Quality Control Comments]"/>
-    <tableColumn id="115" xr3:uid="{149995B1-12F4-4EB9-BDB9-2FE620C9AD74}" name="Term Source REF (NFDI4PSO:1000138)"/>
-    <tableColumn id="116" xr3:uid="{85B8E9F5-B889-420E-B024-B77ED80AEACC}" name="Term Accession Number (NFDI4PSO:1000138)"/>
+    <tableColumn id="48" xr3:uid="{840607F0-C05D-43A1-9189-7EDC962A7D92}" name="Parameter [ORF identifier]"/>
+    <tableColumn id="49" xr3:uid="{1FF4A16F-C1F8-48BE-BF43-002E0607F4D1}" name="Term Source REF (data:2795)" dataDxfId="1"/>
+    <tableColumn id="50" xr3:uid="{039DAF4D-6964-4783-95A4-466177FE6E4A}" name="Term Accession Number (data:2795)" dataDxfId="0"/>
+    <tableColumn id="87" xr3:uid="{AB3E5334-1775-4257-8EA7-7F2BB6436F2F}" name="Parameter [control type]"/>
+    <tableColumn id="88" xr3:uid="{E495946F-FBD7-405E-8EED-995AD2511F66}" name="Term Source REF (DPBO:1000111)" dataDxfId="12"/>
+    <tableColumn id="89" xr3:uid="{5E1A2657-110B-48E8-9560-11556ADD1281}" name="Term Accession Number (DPBO:1000111)" dataDxfId="11"/>
+    <tableColumn id="93" xr3:uid="{179AF75E-FD3F-4DCF-80CC-10687402BB16}" name="Parameter [control specification]" dataDxfId="10"/>
+    <tableColumn id="94" xr3:uid="{7BA7D0E1-5DD0-436D-BCEC-87997CCF47EE}" name="Term Source REF (DPBO:1000137)" dataDxfId="9"/>
+    <tableColumn id="95" xr3:uid="{3B7A30D0-6432-4570-B0F7-A898D68A7AD1}" name="Term Accession Number (DPBO:1000137)" dataDxfId="8"/>
+    <tableColumn id="102" xr3:uid="{0E13B6E6-7025-4001-A6BB-62AE4B137D56}" name="Parameter [quality control]" dataDxfId="7"/>
+    <tableColumn id="103" xr3:uid="{5F087D7E-5437-405E-80C6-8B15D1F952C9}" name="Term Source REF (DPBO:1000112)" dataDxfId="6"/>
+    <tableColumn id="104" xr3:uid="{E9633929-0A31-437A-A7EA-DECC3D04046D}" name="Term Accession Number (DPBO:1000112)" dataDxfId="5"/>
+    <tableColumn id="105" xr3:uid="{739B71E1-D51D-4739-8611-BB56A418FD44}" name="Parameter [quality control comments]" dataDxfId="4"/>
+    <tableColumn id="106" xr3:uid="{7F06CD68-37A3-4947-9EA5-F11099956B7D}" name="Term Source REF (DPBO:1000138)" dataDxfId="3"/>
+    <tableColumn id="107" xr3:uid="{117E29C2-56E7-4D65-9D92-A1F9971A9FDE}" name="Term Accession Number (DPBO:1000138)" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{9EBAD636-173C-4352-8C80-E93414F888CA}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1876,7 +2122,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="617" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="593" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="627" row="2">
@@ -1909,122 +2155,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DC6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="DJ1" sqref="DJ1"/>
+    <sheetView topLeftCell="CZ1" workbookViewId="0">
+      <selection activeCell="CZ4" sqref="CZ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="41" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="34" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="41" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="45.85546875" customWidth="1"/>
-    <col min="42" max="42" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="40.42578125" customWidth="1"/>
-    <col min="45" max="45" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="28" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="29" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="74" max="74" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="30" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="82" max="82" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="89" max="89" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="32.5703125" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="95" max="95" width="26" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="98" max="98" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="101" max="101" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="103" max="103" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="104" max="104" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="36.109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.88671875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="36.33203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="36.44140625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.6640625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="36.109375" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="38" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.88671875" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="36.33203125" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="45.77734375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="37.44140625" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="32.77734375" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="39.33203125" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="50" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="43" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="32.77734375" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="39.33203125" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="30.109375" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="36.5546875" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="29.88671875" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="36.33203125" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="90.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="29.88671875" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="36.33203125" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="29.88671875" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="36.33203125" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="22" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="29.88671875" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="36.33203125" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="31.5546875" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="38" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="27.5546875" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="34.109375" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="98" max="98" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="101" max="101" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="103" max="103" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="104" max="104" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="106" max="106" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="107" max="107" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2032,524 +2278,1488 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
+        <v>257</v>
+      </c>
+      <c r="S1" t="s">
+        <v>258</v>
+      </c>
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V1" t="s">
+        <v>260</v>
+      </c>
+      <c r="W1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="X1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Y1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Z1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AD1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AE1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AF1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AG1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AI1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AJ1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AK1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AL1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AM1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AS1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AV1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AW1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AX1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>324</v>
+      </c>
+      <c r="BA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="BB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="BC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="BD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="BE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="BF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="BG1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BM1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="BN1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>283</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>285</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>288</v>
+      </c>
+      <c r="BV1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="BW1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>291</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>292</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>293</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>294</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>295</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>296</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>297</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>298</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>299</v>
+      </c>
+      <c r="CH1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="CI1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="CJ1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="CK1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="CL1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="CM1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="CN1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>91</v>
-      </c>
       <c r="CO1" t="s">
-        <v>92</v>
+        <v>371</v>
       </c>
       <c r="CP1" t="s">
-        <v>93</v>
+        <v>372</v>
       </c>
       <c r="CQ1" t="s">
-        <v>94</v>
+        <v>300</v>
       </c>
       <c r="CR1" t="s">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="CS1" t="s">
-        <v>96</v>
+        <v>302</v>
       </c>
       <c r="CT1" t="s">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="CU1" t="s">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="CV1" t="s">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c r="CW1" t="s">
-        <v>100</v>
+        <v>306</v>
       </c>
       <c r="CX1" t="s">
-        <v>101</v>
+        <v>307</v>
       </c>
       <c r="CY1" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="CZ1" t="s">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="DA1" t="s">
-        <v>104</v>
+        <v>310</v>
       </c>
       <c r="DB1" t="s">
-        <v>105</v>
+        <v>311</v>
       </c>
       <c r="DC1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>302</v>
+        <v>186</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>187</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>304</v>
+        <v>188</v>
       </c>
       <c r="K2" t="s">
-        <v>305</v>
+        <v>189</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="N2" t="s">
-        <v>306</v>
+        <v>190</v>
       </c>
       <c r="Q2" t="s">
-        <v>307</v>
+        <v>191</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="T2" t="s">
-        <v>308</v>
+        <v>192</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="W2" t="s">
-        <v>309</v>
+        <v>193</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="Z2" t="s">
-        <v>310</v>
+        <v>194</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="AC2" t="s">
-        <v>311</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>312</v>
+        <v>195</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="AI2" t="s">
-        <v>313</v>
+        <v>197</v>
       </c>
       <c r="AL2" t="s">
-        <v>314</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>315</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>316</v>
+        <v>198</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO2" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR2" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="AU2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>318</v>
+        <v>201</v>
+      </c>
+      <c r="AX2" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="BA2" t="s">
-        <v>319</v>
+        <v>203</v>
       </c>
       <c r="BD2" t="s">
-        <v>320</v>
+        <v>204</v>
       </c>
       <c r="BG2" t="s">
-        <v>321</v>
+        <v>205</v>
+      </c>
+      <c r="BH2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="BJ2">
         <v>1</v>
       </c>
+      <c r="BK2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL2" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="BM2" t="s">
-        <v>322</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>323</v>
+        <v>206</v>
+      </c>
+      <c r="BN2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP2" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BQ2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="BS2" t="s">
-        <v>324</v>
+        <v>208</v>
+      </c>
+      <c r="BT2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="BV2" t="s">
-        <v>310</v>
+        <v>194</v>
+      </c>
+      <c r="BW2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="BY2" t="s">
-        <v>325</v>
+        <v>209</v>
+      </c>
+      <c r="BZ2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="CB2">
         <v>78875</v>
       </c>
+      <c r="CC2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD2" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="CE2" t="s">
-        <v>326</v>
+        <v>210</v>
+      </c>
+      <c r="CF2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="CH2" t="s">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="CK2" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="CN2">
         <v>9994</v>
       </c>
-      <c r="CQ2" t="s">
-        <v>329</v>
+      <c r="CO2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ2" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="CR2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="CT2" t="s">
-        <v>330</v>
+        <v>214</v>
+      </c>
+      <c r="CU2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV2" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="CW2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="CX2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CY2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CZ2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="DA2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="DB2" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:107" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>332</v>
+        <v>216</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="K3" t="s">
-        <v>334</v>
+        <v>218</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="Q3" t="s">
-        <v>335</v>
+        <v>219</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="T3">
         <v>84240</v>
       </c>
-      <c r="AR3" t="s">
-        <v>336</v>
+      <c r="U3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR3" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT3" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="AU3" t="s">
-        <v>337</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>338</v>
+        <v>221</v>
+      </c>
+      <c r="AX3" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ3" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="BA3" t="s">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="BD3">
         <v>1921</v>
       </c>
       <c r="BG3" t="s">
-        <v>340</v>
+        <v>224</v>
+      </c>
+      <c r="BH3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI3" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="BJ3" t="s">
-        <v>341</v>
+        <v>225</v>
+      </c>
+      <c r="BK3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL3" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="BM3" t="s">
-        <v>342</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>343</v>
+        <v>226</v>
+      </c>
+      <c r="BN3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP3" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="BQ3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR3" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="BS3" t="s">
-        <v>344</v>
+        <v>228</v>
+      </c>
+      <c r="BT3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX3" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="BY3" t="s">
-        <v>345</v>
+        <v>229</v>
+      </c>
+      <c r="BZ3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA3" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="CB3">
         <v>78955</v>
       </c>
+      <c r="CC3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD3" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="CE3" t="s">
-        <v>346</v>
+        <v>230</v>
+      </c>
+      <c r="CF3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG3" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="CN3">
         <v>168</v>
       </c>
-      <c r="CQ3" t="s">
-        <v>347</v>
+      <c r="CO3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ3" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="CR3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS3" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="CT3" t="s">
-        <v>348</v>
+        <v>232</v>
+      </c>
+      <c r="CU3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV3" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="CW3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
-      <c r="AR4" t="s">
-        <v>350</v>
+        <v>233</v>
+      </c>
+      <c r="CX3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CY3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CZ3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="DA3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="DB3" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:107" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR4" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="AS4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT4" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="AU4" t="s">
-        <v>351</v>
+        <v>235</v>
+      </c>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CC4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD4" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="CE4" t="s">
-        <v>352</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>353</v>
+        <v>236</v>
+      </c>
+      <c r="CF4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN4" s="15"/>
+      <c r="CO4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ4" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="CR4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS4" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="CT4" t="s">
-        <v>354</v>
+        <v>238</v>
+      </c>
+      <c r="CU4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV4" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="CW4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="CX4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CY4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CZ4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="DA4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="DB4" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:107" x14ac:dyDescent="0.3">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT5" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="AU5" t="s">
-        <v>356</v>
+        <v>240</v>
+      </c>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG5" s="15"/>
+      <c r="BH5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CC5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN5" s="15"/>
+      <c r="CO5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ5" s="15"/>
+      <c r="CR5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS5" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="CT5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="CU5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CW5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CY5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CZ5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="DA5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="DB5" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:107" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CC6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN6" s="15"/>
+      <c r="CO6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ6" s="15"/>
+      <c r="CR6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS6" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="CT6" t="s">
-        <v>358</v>
+        <v>242</v>
+      </c>
+      <c r="CU6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CW6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CX6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CY6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="CZ6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="DA6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="DB6" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2564,206 +3774,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFC1F7F-AF17-4F06-B9F6-D890583989BE}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>362</v>
+        <v>244</v>
       </c>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>363</v>
+        <v>245</v>
       </c>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>364</v>
+        <v>246</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>365</v>
+        <v>247</v>
       </c>
       <c r="B27" s="11"/>
     </row>
@@ -2777,65 +3987,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4249ADA-E892-40D4-A1B2-AA62559F2C3F}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="99" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -2851,1046 +4061,1046 @@
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>171</v>
+        <v>340</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>172</v>
+        <v>339</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>360</v>
+        <v>251</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>173</v>
+        <v>341</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>174</v>
+        <v>339</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>313</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>177</v>
+        <v>95</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>178</v>
+        <v>342</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>179</v>
+        <v>339</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>314</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>182</v>
+        <v>343</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>183</v>
+        <v>339</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>184</v>
+        <v>344</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>185</v>
+        <v>261</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>236</v>
+        <v>120</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>237</v>
+        <v>121</v>
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>238</v>
+        <v>122</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>239</v>
+        <v>123</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>237</v>
+        <v>121</v>
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>188</v>
+        <v>345</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>189</v>
+        <v>339</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>317</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>240</v>
+        <v>124</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>241</v>
+        <v>125</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>191</v>
+        <v>89</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>192</v>
+        <v>346</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>193</v>
+        <v>261</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>197</v>
+        <v>347</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>198</v>
+        <v>339</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>199</v>
+        <v>348</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>200</v>
+        <v>321</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>201</v>
+        <v>349</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>202</v>
+        <v>350</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
-        <v>244</v>
+        <v>128</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>204</v>
+        <v>89</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13" t="s">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>49</v>
+        <v>365</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>205</v>
+        <v>351</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>206</v>
+        <v>339</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13" t="s">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>247</v>
+        <v>131</v>
       </c>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>208</v>
+        <v>89</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
-        <v>248</v>
+        <v>132</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>249</v>
+        <v>133</v>
       </c>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>58</v>
+        <v>275</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>211</v>
+        <v>352</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>212</v>
+        <v>339</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>326</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>214</v>
+        <v>339</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>327</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>215</v>
+        <v>354</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>216</v>
+        <v>339</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>328</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13" t="s">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>67</v>
+        <v>366</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>217</v>
+        <v>355</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>218</v>
+        <v>339</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13" t="s">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>70</v>
+        <v>367</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>219</v>
+        <v>356</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>220</v>
+        <v>339</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>330</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13" t="s">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>221</v>
+        <v>357</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>222</v>
+        <v>339</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>331</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13" t="s">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>223</v>
+        <v>358</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>224</v>
+        <v>339</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>225</v>
+        <v>359</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>226</v>
+        <v>339</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>333</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13" t="s">
-        <v>254</v>
+        <v>138</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>227</v>
+        <v>360</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>228</v>
+        <v>339</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>334</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>164</v>
+        <v>89</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
-        <v>255</v>
+        <v>139</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>158</v>
+        <v>373</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>166</v>
+        <v>374</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>375</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>94</v>
+        <v>368</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>159</v>
+        <v>361</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>167</v>
+        <v>339</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13" t="s">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>168</v>
+        <v>339</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>336</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13" t="s">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>100</v>
+        <v>369</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>161</v>
+        <v>363</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>169</v>
+        <v>339</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>337</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13" t="s">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>103</v>
+        <v>370</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>162</v>
+        <v>364</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>170</v>
+        <v>339</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>338</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -3904,6 +5114,38 @@
       <c r="L38" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{8974734C-33D5-428A-B42B-D23423387DD5}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{CB11E4E8-D2CC-4AD9-8602-69833C2F8713}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{87D77435-EA92-408E-8172-354B1C3BB9AD}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{6E0CECB4-D50D-45DF-95A8-740D9C69E5DE}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{B53D0C14-6021-4982-A92E-53F0FC730C40}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{258B8AB9-5A4D-4A01-A694-E732C3F94172}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{A2A1BBB9-C8D4-437F-A371-AEBDEA291AA9}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{3C977801-7A4C-45DD-9EDD-4F6FE7DA17B4}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{FF146881-1500-4113-B5F5-AB9316475571}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{1F708BD5-140E-4592-B190-F6352D43FC54}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{12F7A833-53CD-4E4F-9735-B18436301B87}"/>
+    <hyperlink ref="D18" r:id="rId12" xr:uid="{1780CE3A-7AA2-4AB5-AA5B-7FBC06D01E16}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{FFB8DB0B-5FCC-4BF2-BE7A-CB82A9F2305D}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{7BDC7198-FF57-43F1-8A0F-CBBC003C0F46}"/>
+    <hyperlink ref="D20" r:id="rId15" xr:uid="{74D51EF8-E39D-48AE-B41A-EBB4342E412E}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{ADD094EA-89C7-41AE-BAF0-E54A7FD34DDA}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{D81CB436-1BE5-4CC5-8C67-272A19DAB978}"/>
+    <hyperlink ref="D24" r:id="rId18" xr:uid="{2FAEC737-8EC5-4D9E-A511-3AF562DF12FB}"/>
+    <hyperlink ref="D25" r:id="rId19" xr:uid="{5DEB0508-29F9-47F8-A9FB-235EE5BAD3B3}"/>
+    <hyperlink ref="D26" r:id="rId20" xr:uid="{58A33B69-E091-4AE3-B9F6-6740E9ADB184}"/>
+    <hyperlink ref="D27" r:id="rId21" xr:uid="{DEF9AE4D-1F28-407C-8C0E-E94F3E577C41}"/>
+    <hyperlink ref="D28" r:id="rId22" xr:uid="{8F535512-2510-4379-B307-0CB463815F6F}"/>
+    <hyperlink ref="D29" r:id="rId23" xr:uid="{74810A15-17EB-4A95-9061-CCD28EFB8C9F}"/>
+    <hyperlink ref="D30" r:id="rId24" xr:uid="{DCDBC8CC-44E1-42C7-933F-C4AE73E9594C}"/>
+    <hyperlink ref="D31" r:id="rId25" xr:uid="{58AD9E87-499F-4E79-9107-BAEB7D5D14DF}"/>
+    <hyperlink ref="D34" r:id="rId26" xr:uid="{07A91544-DFED-4219-A3C4-186604EFC321}"/>
+    <hyperlink ref="D35" r:id="rId27" xr:uid="{569542C3-27F7-4EC1-8E12-8F3493FF0E99}"/>
+    <hyperlink ref="D36" r:id="rId28" xr:uid="{EB54F555-A2C9-49A3-ACDD-411ED7E98D1B}"/>
+    <hyperlink ref="D37" r:id="rId29" xr:uid="{7045DC94-CDD0-40DD-87E0-B69AC39E1FCB}"/>
+    <hyperlink ref="D33" r:id="rId30" xr:uid="{8643D11D-03D1-4427-A029-C20E320E3BCD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3912,65 +5154,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07F4D60-B166-4D21-ACEA-A455B5E396EB}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="86.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -3986,101 +5228,101 @@
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>171</v>
+        <v>340</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>172</v>
+        <v>339</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>360</v>
+        <v>251</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>173</v>
+        <v>341</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>174</v>
+        <v>339</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>313</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>177</v>
+        <v>95</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>178</v>
+        <v>342</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>179</v>
+        <v>339</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>314</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
-        <v>261</v>
+        <v>145</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -4088,23 +5330,23 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
-        <v>261</v>
+        <v>145</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -4112,48 +5354,48 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>182</v>
+        <v>343</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>183</v>
+        <v>339</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>184</v>
+        <v>344</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>185</v>
+        <v>261</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -4164,18 +5406,18 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -4186,18 +5428,18 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>188</v>
+        <v>345</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>189</v>
+        <v>339</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>317</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -4208,23 +5450,23 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>191</v>
+        <v>89</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -4232,23 +5474,23 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>192</v>
+        <v>346</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>193</v>
+        <v>261</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -4256,23 +5498,23 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -4280,23 +5522,23 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>197</v>
+        <v>347</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>198</v>
+        <v>339</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -4304,23 +5546,23 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>199</v>
+        <v>348</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>200</v>
+        <v>321</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -4328,421 +5570,421 @@
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>201</v>
+        <v>349</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>202</v>
+        <v>350</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
-        <v>265</v>
+        <v>149</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>266</v>
+        <v>150</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>204</v>
+        <v>89</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13" t="s">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>49</v>
+        <v>365</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>205</v>
+        <v>351</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>206</v>
+        <v>339</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>270</v>
+        <v>154</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>208</v>
+        <v>89</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
-        <v>271</v>
+        <v>155</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>272</v>
+        <v>156</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13" t="s">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>58</v>
+        <v>275</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>211</v>
+        <v>352</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>212</v>
+        <v>339</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>326</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>214</v>
+        <v>339</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>327</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>279</v>
+        <v>163</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>215</v>
+        <v>354</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>216</v>
+        <v>339</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>328</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13" t="s">
-        <v>280</v>
+        <v>164</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>281</v>
+        <v>165</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>67</v>
+        <v>366</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>217</v>
+        <v>355</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>218</v>
+        <v>339</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13" t="s">
-        <v>282</v>
+        <v>166</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>70</v>
+        <v>367</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>219</v>
+        <v>356</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>220</v>
+        <v>339</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>330</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13" t="s">
-        <v>284</v>
+        <v>168</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>285</v>
+        <v>169</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>221</v>
+        <v>357</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>222</v>
+        <v>339</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>331</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13" t="s">
-        <v>286</v>
+        <v>170</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>223</v>
+        <v>358</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>224</v>
+        <v>339</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>281</v>
+        <v>165</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>225</v>
+        <v>359</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>226</v>
+        <v>339</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>333</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>281</v>
+        <v>165</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>227</v>
+        <v>360</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>228</v>
+        <v>339</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>334</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>291</v>
+        <v>175</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -4750,23 +5992,23 @@
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>164</v>
+        <v>89</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
-        <v>291</v>
+        <v>175</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -4774,23 +6016,23 @@
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>291</v>
+        <v>175</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -4798,164 +6040,164 @@
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>158</v>
+        <v>373</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>166</v>
+        <v>374</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>375</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
-        <v>292</v>
+        <v>176</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>281</v>
+        <v>165</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>293</v>
+        <v>177</v>
       </c>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>94</v>
+        <v>368</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>159</v>
+        <v>361</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>167</v>
+        <v>339</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13" t="s">
-        <v>294</v>
+        <v>178</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>295</v>
+        <v>179</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>168</v>
+        <v>339</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>336</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13" t="s">
-        <v>296</v>
+        <v>180</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>100</v>
+        <v>369</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>161</v>
+        <v>363</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>169</v>
+        <v>339</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>337</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13" t="s">
-        <v>298</v>
+        <v>182</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>299</v>
+        <v>183</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>103</v>
+        <v>370</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>162</v>
+        <v>364</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>170</v>
+        <v>339</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>338</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13" t="s">
-        <v>300</v>
+        <v>184</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>301</v>
+        <v>185</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -4969,6 +6211,38 @@
       <c r="L38" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{DD88F614-74F3-491C-8EB2-B92B1B325559}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{4631DEB4-A13D-41CB-B9C2-2FB7FD862DFC}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{077FE74D-C2DC-4F76-BB70-B47F77162D81}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{D167FE78-E25E-4FC1-8D1F-D2BBBC566461}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{C8213C33-EDE0-437D-8F14-74EDAD025BA4}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{0CF82302-36CE-477B-93D9-2B4E57E34D73}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{40F2EA78-0E1A-4DD2-8710-53671FDBD10D}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{8CEAFAB9-1F11-4B01-9F1F-709A1DF9E12D}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{AA7771D8-44A2-49BA-8655-0820E7416D26}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{3D6EBEC3-5902-46C5-A5D3-D0EDDDA73A4D}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{796036EF-D807-4D57-94E6-D0E4744041B1}"/>
+    <hyperlink ref="D18" r:id="rId12" xr:uid="{B637AB3D-A721-48EE-8F40-915850C6E9C2}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{87B68361-675C-4041-8B06-58AFD10F6E3A}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{F7B971BC-77DC-4FD1-86F9-F30C29B283B4}"/>
+    <hyperlink ref="D20" r:id="rId15" xr:uid="{1170F15C-A88B-4621-A702-990E0E656FA4}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{7ACB6AF0-F36A-4791-9D0A-867F4B99F041}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{B558A408-CCF5-4B40-9A37-E72DAEC4D2FB}"/>
+    <hyperlink ref="D24" r:id="rId18" xr:uid="{ED4D1BC4-3382-4A85-881B-C4955C49A11D}"/>
+    <hyperlink ref="D25" r:id="rId19" xr:uid="{5DFF1176-B504-4ACC-959E-86283B2DE87B}"/>
+    <hyperlink ref="D26" r:id="rId20" xr:uid="{8EC4F8AF-2385-4F75-8D84-3243848AACC8}"/>
+    <hyperlink ref="D27" r:id="rId21" xr:uid="{419DC0EA-8CD0-4118-BE3B-A8C7CAD9E912}"/>
+    <hyperlink ref="D28" r:id="rId22" xr:uid="{1134A21D-80F6-40DF-9840-CE75A02E33D8}"/>
+    <hyperlink ref="D29" r:id="rId23" xr:uid="{3603EE3F-34D0-4F46-AD64-8052A5D33AC7}"/>
+    <hyperlink ref="D30" r:id="rId24" xr:uid="{F00E22EC-96C0-4478-8E3D-71A09EFE99CF}"/>
+    <hyperlink ref="D31" r:id="rId25" xr:uid="{CF26FCE2-AE93-4977-9777-85A52535C339}"/>
+    <hyperlink ref="D34" r:id="rId26" xr:uid="{9B4F52D6-4B8E-4475-B316-362428C14803}"/>
+    <hyperlink ref="D35" r:id="rId27" xr:uid="{3E7303DB-D19C-4570-9F0C-ECC058B88BAB}"/>
+    <hyperlink ref="D36" r:id="rId28" xr:uid="{1D7DC063-42CD-44E7-AFCC-7790E071D900}"/>
+    <hyperlink ref="D37" r:id="rId29" xr:uid="{29703D8F-E704-4A50-BB59-89E722C88002}"/>
+    <hyperlink ref="D33" r:id="rId30" xr:uid="{9E93F5D9-5C84-481E-A166-74C45B256E81}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/templates/dataplant/2EXT05_Imaging.xlsx
+++ b/templates/dataplant/2EXT05_Imaging.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\sciebo - Eggels, Stella (s.eggels@fz-juelich.de)@fz-juelich.sciebo.de\SE\DataPLANT\ARCs und SWATE\ersatz von nfdi4pso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBF1B5A-8A55-4F4F-A4AA-D1E57733E04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCCFFFB-3E5A-4DCF-B83C-2E264C6DC6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT05_Imaging" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
     <sheet name="BioImageArchive_Imaging" sheetId="3" r:id="rId3"/>
     <sheet name="IDR_Imaging" sheetId="5" r:id="rId4"/>
   </sheets>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="375">
   <si>
     <t>Source Name</t>
   </si>
@@ -327,9 +327,6 @@
     <t>Rempfer</t>
   </si>
   <si>
-    <t>Chistine</t>
-  </si>
-  <si>
     <t>Imaging extraction</t>
   </si>
   <si>
@@ -339,18 +336,9 @@
     <t>annotationTableFuzzyDodo24</t>
   </si>
   <si>
-    <t>BioImageArchive</t>
-  </si>
-  <si>
-    <t>IDR</t>
-  </si>
-  <si>
     <t>Imaging</t>
   </si>
   <si>
-    <t>Extraction</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1255,6 +1243,15 @@
   </si>
   <si>
     <t>http://edamontology.org/data_2795</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302884</t>
   </si>
 </sst>
 </file>
@@ -1804,20 +1801,20 @@
     <tableColumn id="100" xr3:uid="{6FD81A5D-2263-4CF6-B6F2-A5589D8B057A}" name="Term Source REF (PATO:0000165)"/>
     <tableColumn id="101" xr3:uid="{10AD2F5C-28FB-4ABD-988F-9645DDA18F17}" name="Term Accession Number (PATO:0000165)"/>
     <tableColumn id="48" xr3:uid="{840607F0-C05D-43A1-9189-7EDC962A7D92}" name="Parameter [ORF identifier]"/>
-    <tableColumn id="49" xr3:uid="{1FF4A16F-C1F8-48BE-BF43-002E0607F4D1}" name="Term Source REF (data:2795)" dataDxfId="1"/>
-    <tableColumn id="50" xr3:uid="{039DAF4D-6964-4783-95A4-466177FE6E4A}" name="Term Accession Number (data:2795)" dataDxfId="0"/>
+    <tableColumn id="49" xr3:uid="{1FF4A16F-C1F8-48BE-BF43-002E0607F4D1}" name="Term Source REF (data:2795)" dataDxfId="12"/>
+    <tableColumn id="50" xr3:uid="{039DAF4D-6964-4783-95A4-466177FE6E4A}" name="Term Accession Number (data:2795)" dataDxfId="11"/>
     <tableColumn id="87" xr3:uid="{AB3E5334-1775-4257-8EA7-7F2BB6436F2F}" name="Parameter [control type]"/>
-    <tableColumn id="88" xr3:uid="{E495946F-FBD7-405E-8EED-995AD2511F66}" name="Term Source REF (DPBO:1000111)" dataDxfId="12"/>
-    <tableColumn id="89" xr3:uid="{5E1A2657-110B-48E8-9560-11556ADD1281}" name="Term Accession Number (DPBO:1000111)" dataDxfId="11"/>
-    <tableColumn id="93" xr3:uid="{179AF75E-FD3F-4DCF-80CC-10687402BB16}" name="Parameter [control specification]" dataDxfId="10"/>
-    <tableColumn id="94" xr3:uid="{7BA7D0E1-5DD0-436D-BCEC-87997CCF47EE}" name="Term Source REF (DPBO:1000137)" dataDxfId="9"/>
-    <tableColumn id="95" xr3:uid="{3B7A30D0-6432-4570-B0F7-A898D68A7AD1}" name="Term Accession Number (DPBO:1000137)" dataDxfId="8"/>
-    <tableColumn id="102" xr3:uid="{0E13B6E6-7025-4001-A6BB-62AE4B137D56}" name="Parameter [quality control]" dataDxfId="7"/>
-    <tableColumn id="103" xr3:uid="{5F087D7E-5437-405E-80C6-8B15D1F952C9}" name="Term Source REF (DPBO:1000112)" dataDxfId="6"/>
-    <tableColumn id="104" xr3:uid="{E9633929-0A31-437A-A7EA-DECC3D04046D}" name="Term Accession Number (DPBO:1000112)" dataDxfId="5"/>
-    <tableColumn id="105" xr3:uid="{739B71E1-D51D-4739-8611-BB56A418FD44}" name="Parameter [quality control comments]" dataDxfId="4"/>
-    <tableColumn id="106" xr3:uid="{7F06CD68-37A3-4947-9EA5-F11099956B7D}" name="Term Source REF (DPBO:1000138)" dataDxfId="3"/>
-    <tableColumn id="107" xr3:uid="{117E29C2-56E7-4D65-9D92-A1F9971A9FDE}" name="Term Accession Number (DPBO:1000138)" dataDxfId="2"/>
+    <tableColumn id="88" xr3:uid="{E495946F-FBD7-405E-8EED-995AD2511F66}" name="Term Source REF (DPBO:1000111)" dataDxfId="10"/>
+    <tableColumn id="89" xr3:uid="{5E1A2657-110B-48E8-9560-11556ADD1281}" name="Term Accession Number (DPBO:1000111)" dataDxfId="9"/>
+    <tableColumn id="93" xr3:uid="{179AF75E-FD3F-4DCF-80CC-10687402BB16}" name="Parameter [control specification]" dataDxfId="8"/>
+    <tableColumn id="94" xr3:uid="{7BA7D0E1-5DD0-436D-BCEC-87997CCF47EE}" name="Term Source REF (DPBO:1000137)" dataDxfId="7"/>
+    <tableColumn id="95" xr3:uid="{3B7A30D0-6432-4570-B0F7-A898D68A7AD1}" name="Term Accession Number (DPBO:1000137)" dataDxfId="6"/>
+    <tableColumn id="102" xr3:uid="{0E13B6E6-7025-4001-A6BB-62AE4B137D56}" name="Parameter [quality control]" dataDxfId="5"/>
+    <tableColumn id="103" xr3:uid="{5F087D7E-5437-405E-80C6-8B15D1F952C9}" name="Term Source REF (DPBO:1000112)" dataDxfId="4"/>
+    <tableColumn id="104" xr3:uid="{E9633929-0A31-437A-A7EA-DECC3D04046D}" name="Term Accession Number (DPBO:1000112)" dataDxfId="3"/>
+    <tableColumn id="105" xr3:uid="{739B71E1-D51D-4739-8611-BB56A418FD44}" name="Parameter [quality control comments]" dataDxfId="2"/>
+    <tableColumn id="106" xr3:uid="{7F06CD68-37A3-4947-9EA5-F11099956B7D}" name="Term Source REF (DPBO:1000138)" dataDxfId="1"/>
+    <tableColumn id="107" xr3:uid="{117E29C2-56E7-4D65-9D92-A1F9971A9FDE}" name="Term Accession Number (DPBO:1000138)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9EBAD636-173C-4352-8C80-E93414F888CA}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2278,19 +2275,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" t="s">
         <v>248</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>249</v>
-      </c>
-      <c r="E1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1" t="s">
-        <v>253</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -2302,13 +2299,13 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N1" t="s">
         <v>6</v>
@@ -2323,19 +2320,19 @@
         <v>9</v>
       </c>
       <c r="R1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="S1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="T1" t="s">
         <v>10</v>
       </c>
       <c r="U1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="V1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="W1" t="s">
         <v>11</v>
@@ -2347,13 +2344,13 @@
         <v>13</v>
       </c>
       <c r="Z1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AA1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AB1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AC1" t="s">
         <v>14</v>
@@ -2368,10 +2365,10 @@
         <v>17</v>
       </c>
       <c r="AG1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AH1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AI1" t="s">
         <v>18</v>
@@ -2386,28 +2383,28 @@
         <v>21</v>
       </c>
       <c r="AM1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>267</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>271</v>
       </c>
       <c r="AR1" t="s">
         <v>22</v>
       </c>
       <c r="AS1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AT1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AU1" t="s">
         <v>23</v>
@@ -2419,13 +2416,13 @@
         <v>25</v>
       </c>
       <c r="AX1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AY1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AZ1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BA1" t="s">
         <v>26</v>
@@ -2446,85 +2443,85 @@
         <v>31</v>
       </c>
       <c r="BG1" t="s">
+        <v>271</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BK1" t="s">
         <v>275</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" t="s">
         <v>276</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>277</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>278</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>280</v>
       </c>
       <c r="BM1" t="s">
         <v>32</v>
       </c>
       <c r="BN1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BR1" t="s">
         <v>281</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BS1" t="s">
         <v>282</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BT1" t="s">
         <v>283</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BU1" t="s">
         <v>284</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>286</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>287</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>288</v>
       </c>
       <c r="BV1" t="s">
         <v>33</v>
       </c>
       <c r="BW1" t="s">
+        <v>285</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>286</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>288</v>
+      </c>
+      <c r="CA1" t="s">
         <v>289</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CB1" t="s">
         <v>290</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CC1" t="s">
         <v>291</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CD1" t="s">
         <v>292</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CE1" t="s">
         <v>293</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CF1" t="s">
         <v>294</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CG1" t="s">
         <v>295</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>296</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>297</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>298</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>299</v>
       </c>
       <c r="CH1" t="s">
         <v>34</v>
@@ -2548,46 +2545,46 @@
         <v>40</v>
       </c>
       <c r="CO1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="CP1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="CQ1" t="s">
+        <v>296</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>297</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>298</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>299</v>
+      </c>
+      <c r="CU1" t="s">
         <v>300</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CV1" t="s">
         <v>301</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CW1" t="s">
         <v>302</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CX1" t="s">
         <v>303</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CY1" t="s">
         <v>304</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CZ1" t="s">
         <v>305</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DA1" t="s">
         <v>306</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DB1" t="s">
         <v>307</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>308</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>309</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>310</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>311</v>
       </c>
       <c r="DC1" t="s">
         <v>1</v>
@@ -2595,1171 +2592,1171 @@
     </row>
     <row r="2" spans="1:107" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="Q2" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="R2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" t="s">
         <v>188</v>
       </c>
-      <c r="K2" t="s">
+      <c r="U2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="X2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" t="s">
         <v>190</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AA2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" t="s">
         <v>191</v>
       </c>
-      <c r="R2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AF2" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="U2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="AG2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI2" t="s">
         <v>193</v>
       </c>
-      <c r="X2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AL2" t="s">
         <v>194</v>
       </c>
-      <c r="AA2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AM2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO2" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AP2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR2" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="AG2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AS2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU2" t="s">
         <v>197</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AX2" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="AM2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO2" s="15" t="s">
+      <c r="AY2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA2" t="s">
         <v>199</v>
       </c>
-      <c r="AP2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR2" s="15" t="s">
+      <c r="BD2" t="s">
         <v>200</v>
       </c>
-      <c r="AS2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU2" t="s">
+      <c r="BG2" t="s">
         <v>201</v>
       </c>
-      <c r="AX2" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="AY2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>203</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>204</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>205</v>
-      </c>
       <c r="BH2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BJ2">
         <v>1</v>
       </c>
       <c r="BK2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BL2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BM2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="BN2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BP2" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="BQ2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BR2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BS2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="BT2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BU2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BV2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BW2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BX2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BY2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="BZ2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CA2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CB2">
         <v>78875</v>
       </c>
       <c r="CC2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CD2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CE2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="CF2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CG2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CH2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="CK2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="CN2">
         <v>9994</v>
       </c>
       <c r="CO2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CP2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CQ2" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="CR2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CS2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CT2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="CU2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CV2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CW2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="CX2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CY2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CZ2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="DA2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="DB2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:107" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T3">
         <v>84240</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AB3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AF3" s="15"/>
       <c r="AG3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AH3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AL3" s="15"/>
       <c r="AM3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AN3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AO3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AP3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AR3" s="15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AS3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AT3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AU3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AX3" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AY3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AZ3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BA3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BD3">
         <v>1921</v>
       </c>
       <c r="BG3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BH3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BK3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>222</v>
+      </c>
+      <c r="BN3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP3" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="BQ3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS3" t="s">
         <v>224</v>
       </c>
-      <c r="BH3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ3" t="s">
+      <c r="BT3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY3" t="s">
         <v>225</v>
       </c>
-      <c r="BK3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>226</v>
-      </c>
-      <c r="BN3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BO3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP3" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>228</v>
-      </c>
-      <c r="BT3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BV3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>229</v>
-      </c>
       <c r="BZ3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CA3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CB3">
         <v>78955</v>
       </c>
       <c r="CC3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CD3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CE3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="CF3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CG3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CN3">
         <v>168</v>
       </c>
       <c r="CO3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CP3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CQ3" s="15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="CR3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CS3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CT3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="CU3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CV3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CW3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="CX3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CY3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CZ3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="DA3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="DB3" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:107" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="15"/>
       <c r="R4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Z4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AB4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AF4" s="15"/>
       <c r="AG4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AH4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AL4" s="15"/>
       <c r="AM4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AN4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AO4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AP4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AQ4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AR4" s="15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AS4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AT4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AU4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AX4" s="15"/>
       <c r="AY4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AZ4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BG4" s="15"/>
       <c r="BH4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BI4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BJ4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BK4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BL4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BM4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BN4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BO4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BP4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BQ4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BR4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BS4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BT4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BU4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BV4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BW4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BX4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BY4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BZ4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CA4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CB4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CC4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CD4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CE4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="CF4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CG4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CN4" s="15"/>
       <c r="CO4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CP4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CQ4" s="15" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="CR4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CS4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CT4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="CU4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CV4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CW4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="CX4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CY4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CZ4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="DA4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="DB4" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:107" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="15"/>
       <c r="R5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AB5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AF5" s="15"/>
       <c r="AG5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AH5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AL5" s="15"/>
       <c r="AM5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AN5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AO5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AR5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AS5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AT5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AU5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AX5" s="15"/>
       <c r="AY5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AZ5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BG5" s="15"/>
       <c r="BH5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BI5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BJ5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BK5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BL5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BM5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BN5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BO5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BP5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BQ5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BR5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BS5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BT5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BU5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BV5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BW5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BX5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BY5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BZ5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CA5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CB5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CC5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CD5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CE5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CF5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CG5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CN5" s="15"/>
       <c r="CO5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CP5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CQ5" s="15"/>
       <c r="CR5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CS5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CT5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="CU5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CV5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CW5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CX5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CY5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CZ5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="DA5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="DB5" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:107" x14ac:dyDescent="0.3">
       <c r="B6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="15"/>
       <c r="R6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="W6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AB6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AF6" s="15"/>
       <c r="AG6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AH6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AL6" s="15"/>
       <c r="AM6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AN6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AO6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AP6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AR6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AS6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AT6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AX6" s="15"/>
       <c r="AY6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AZ6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BG6" s="15"/>
       <c r="BH6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BI6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BJ6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BK6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BL6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BM6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BN6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BO6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BP6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BQ6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BR6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BS6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BT6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BU6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BV6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BW6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BX6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BY6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BZ6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CA6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CB6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CC6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CD6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CE6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CF6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CG6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CN6" s="15"/>
       <c r="CO6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CP6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CQ6" s="15"/>
       <c r="CR6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CS6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CT6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="CU6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CV6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CW6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CX6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CY6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CZ6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="DA6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="DB6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3774,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFC1F7F-AF17-4F06-B9F6-D890583989BE}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3798,7 +3795,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3806,7 +3803,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -3814,7 +3811,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3822,7 +3819,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3830,7 +3827,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3843,12 +3840,8 @@
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -3875,18 +3868,20 @@
         <v>52</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -3914,7 +3909,7 @@
         <v>57</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>66</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3955,25 +3950,25 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B27" s="11"/>
     </row>
@@ -3987,8 +3982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4249ADA-E892-40D4-A1B2-AA62559F2C3F}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4009,40 +4004,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -4066,20 +4061,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
@@ -4087,23 +4082,23 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -4114,56 +4109,56 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L6" s="13"/>
     </row>
@@ -4172,28 +4167,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L7" s="13"/>
     </row>
@@ -4202,25 +4197,25 @@
         <v>9</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -4230,30 +4225,30 @@
         <v>10</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L9" s="13"/>
     </row>
@@ -4262,59 +4257,59 @@
         <v>11</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -4324,28 +4319,28 @@
         <v>14</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L12" s="13"/>
     </row>
@@ -4354,28 +4349,28 @@
         <v>17</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L13" s="13"/>
     </row>
@@ -4384,28 +4379,28 @@
         <v>18</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L14" s="13"/>
     </row>
@@ -4414,58 +4409,58 @@
         <v>21</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L16" s="13"/>
     </row>
@@ -4474,25 +4469,25 @@
         <v>22</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -4502,56 +4497,56 @@
         <v>23</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L19" s="13"/>
     </row>
@@ -4560,28 +4555,28 @@
         <v>26</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L20" s="13"/>
     </row>
@@ -4590,88 +4585,88 @@
         <v>29</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L23" s="13"/>
     </row>
@@ -4680,88 +4675,88 @@
         <v>32</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L26" s="13"/>
     </row>
@@ -4770,118 +4765,118 @@
         <v>33</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L30" s="13"/>
     </row>
@@ -4890,28 +4885,28 @@
         <v>34</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>93</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L31" s="13"/>
     </row>
@@ -4920,28 +4915,28 @@
         <v>37</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L32" s="13"/>
     </row>
@@ -4950,148 +4945,148 @@
         <v>40</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L37" s="13"/>
     </row>
@@ -5100,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -5176,40 +5171,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -5233,20 +5228,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
@@ -5254,23 +5249,23 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -5281,48 +5276,48 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -5335,18 +5330,18 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -5359,27 +5354,27 @@
         <v>9</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -5389,13 +5384,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -5411,13 +5406,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -5430,16 +5425,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -5455,18 +5450,18 @@
         <v>14</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -5479,18 +5474,18 @@
         <v>17</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -5503,18 +5498,18 @@
         <v>18</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -5527,18 +5522,18 @@
         <v>21</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -5548,21 +5543,21 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -5575,27 +5570,27 @@
         <v>22</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -5605,57 +5600,57 @@
         <v>23</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -5665,27 +5660,27 @@
         <v>26</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -5695,92 +5690,92 @@
         <v>29</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L23" s="13"/>
     </row>
@@ -5789,87 +5784,87 @@
         <v>32</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
@@ -5879,112 +5874,112 @@
         <v>33</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -5997,18 +5992,18 @@
         <v>34</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>93</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -6021,18 +6016,18 @@
         <v>37</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -6045,149 +6040,149 @@
         <v>40</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
@@ -6197,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>

--- a/templates/dataplant/2EXT05_Imaging.xlsx
+++ b/templates/dataplant/2EXT05_Imaging.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCCFFFB-3E5A-4DCF-B83C-2E264C6DC6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD9B7B4-1BFF-42E3-B72E-A1FC8566B34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT05_Imaging" sheetId="1" r:id="rId1"/>
@@ -1251,7 +1251,7 @@
     <t>extraction</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0302884</t>
+    <t>OBI:0302884</t>
   </si>
 </sst>
 </file>
@@ -1424,12 +1424,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2594,19 +2591,19 @@
       <c r="B2" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="H2" t="s">
@@ -2615,10 +2612,10 @@
       <c r="K2" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="15" t="s">
+      <c r="L2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="N2" t="s">
@@ -2627,49 +2624,49 @@
       <c r="Q2" t="s">
         <v>187</v>
       </c>
-      <c r="R2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="S2" s="15" t="s">
+      <c r="R2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="T2" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="V2" s="15" t="s">
+      <c r="U2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="W2" t="s">
         <v>189</v>
       </c>
-      <c r="X2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" s="15" t="s">
+      <c r="X2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="Z2" t="s">
         <v>190</v>
       </c>
-      <c r="AA2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AA2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="AC2" t="s">
         <v>191</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AF2" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="AG2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AG2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="AI2" t="s">
@@ -2678,40 +2675,40 @@
       <c r="AL2" t="s">
         <v>194</v>
       </c>
-      <c r="AM2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO2" s="15" t="s">
+      <c r="AM2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO2" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="AP2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR2" s="15" t="s">
+      <c r="AP2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR2" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="AS2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT2" s="15" t="s">
+      <c r="AS2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="AU2" t="s">
         <v>197</v>
       </c>
-      <c r="AX2" s="15" t="s">
+      <c r="AX2" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="AY2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ2" s="15" t="s">
+      <c r="AY2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="BA2" t="s">
@@ -2723,82 +2720,82 @@
       <c r="BG2" t="s">
         <v>201</v>
       </c>
-      <c r="BH2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI2" s="15" t="s">
+      <c r="BH2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="BJ2">
         <v>1</v>
       </c>
-      <c r="BK2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL2" s="15" t="s">
+      <c r="BK2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="BM2" t="s">
         <v>202</v>
       </c>
-      <c r="BN2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP2" s="15" t="s">
+      <c r="BN2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP2" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="BQ2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR2" s="15" t="s">
+      <c r="BQ2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="BS2" t="s">
         <v>204</v>
       </c>
-      <c r="BT2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU2" s="15" t="s">
+      <c r="BT2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="BV2" t="s">
         <v>190</v>
       </c>
-      <c r="BW2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BX2" s="15" t="s">
+      <c r="BW2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="BY2" t="s">
         <v>205</v>
       </c>
-      <c r="BZ2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CA2" s="15" t="s">
+      <c r="BZ2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CA2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="CB2">
         <v>78875</v>
       </c>
-      <c r="CC2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CD2" s="15" t="s">
+      <c r="CC2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CD2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="CE2" t="s">
         <v>206</v>
       </c>
-      <c r="CF2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CG2" s="15" t="s">
+      <c r="CF2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CG2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="CH2" t="s">
@@ -2810,46 +2807,46 @@
       <c r="CN2">
         <v>9994</v>
       </c>
-      <c r="CO2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CP2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CQ2" s="15" t="s">
+      <c r="CO2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CP2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CQ2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="CR2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CS2" s="15" t="s">
+      <c r="CR2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CS2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="CT2" t="s">
         <v>210</v>
       </c>
-      <c r="CU2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CV2" s="15" t="s">
+      <c r="CU2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CV2" s="14" t="s">
         <v>70</v>
       </c>
       <c r="CW2" t="s">
         <v>211</v>
       </c>
-      <c r="CX2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CY2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CZ2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="DA2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="DB2" s="15" t="s">
+      <c r="CX2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CY2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CZ2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="DA2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="DB2" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2857,19 +2854,19 @@
       <c r="B3" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="C3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>70</v>
       </c>
       <c r="H3" t="s">
@@ -2878,90 +2875,90 @@
       <c r="K3" t="s">
         <v>214</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="15" t="s">
+      <c r="L3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="14" t="s">
         <v>70</v>
       </c>
       <c r="Q3" t="s">
         <v>215</v>
       </c>
-      <c r="R3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="15" t="s">
+      <c r="R3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>70</v>
       </c>
       <c r="T3">
         <v>84240</v>
       </c>
-      <c r="U3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR3" s="15" t="s">
+      <c r="U3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR3" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="AS3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT3" s="15" t="s">
+      <c r="AS3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" s="14" t="s">
         <v>70</v>
       </c>
       <c r="AU3" t="s">
         <v>217</v>
       </c>
-      <c r="AX3" s="15" t="s">
+      <c r="AX3" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="AY3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ3" s="15" t="s">
+      <c r="AY3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ3" s="14" t="s">
         <v>70</v>
       </c>
       <c r="BA3" t="s">
@@ -2973,789 +2970,789 @@
       <c r="BG3" t="s">
         <v>220</v>
       </c>
-      <c r="BH3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI3" s="15" t="s">
+      <c r="BH3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI3" s="14" t="s">
         <v>70</v>
       </c>
       <c r="BJ3" t="s">
         <v>221</v>
       </c>
-      <c r="BK3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL3" s="15" t="s">
+      <c r="BK3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL3" s="14" t="s">
         <v>70</v>
       </c>
       <c r="BM3" t="s">
         <v>222</v>
       </c>
-      <c r="BN3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP3" s="15" t="s">
+      <c r="BN3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP3" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="BQ3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR3" s="15" t="s">
+      <c r="BQ3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR3" s="14" t="s">
         <v>70</v>
       </c>
       <c r="BS3" t="s">
         <v>224</v>
       </c>
-      <c r="BT3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BW3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BX3" s="15" t="s">
+      <c r="BT3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX3" s="14" t="s">
         <v>70</v>
       </c>
       <c r="BY3" t="s">
         <v>225</v>
       </c>
-      <c r="BZ3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CA3" s="15" t="s">
+      <c r="BZ3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CA3" s="14" t="s">
         <v>70</v>
       </c>
       <c r="CB3">
         <v>78955</v>
       </c>
-      <c r="CC3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CD3" s="15" t="s">
+      <c r="CC3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CD3" s="14" t="s">
         <v>70</v>
       </c>
       <c r="CE3" t="s">
         <v>226</v>
       </c>
-      <c r="CF3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CG3" s="15" t="s">
+      <c r="CF3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CG3" s="14" t="s">
         <v>70</v>
       </c>
       <c r="CN3">
         <v>168</v>
       </c>
-      <c r="CO3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CP3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CQ3" s="15" t="s">
+      <c r="CO3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CP3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CQ3" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="CR3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CS3" s="15" t="s">
+      <c r="CR3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CS3" s="14" t="s">
         <v>70</v>
       </c>
       <c r="CT3" t="s">
         <v>228</v>
       </c>
-      <c r="CU3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CV3" s="15" t="s">
+      <c r="CU3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CV3" s="14" t="s">
         <v>70</v>
       </c>
       <c r="CW3" t="s">
         <v>229</v>
       </c>
-      <c r="CX3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CY3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CZ3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="DA3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="DB3" s="15" t="s">
+      <c r="CX3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CY3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CZ3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="DA3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="DB3" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR4" s="15" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR4" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="AS4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT4" s="15" t="s">
+      <c r="AS4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT4" s="14" t="s">
         <v>70</v>
       </c>
       <c r="AU4" t="s">
         <v>231</v>
       </c>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG4" s="15"/>
-      <c r="BH4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BW4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BX4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BY4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BZ4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CA4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CB4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CC4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CD4" s="15" t="s">
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BZ4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CA4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CB4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CC4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CD4" s="14" t="s">
         <v>70</v>
       </c>
       <c r="CE4" t="s">
         <v>232</v>
       </c>
-      <c r="CF4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CG4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CN4" s="15"/>
-      <c r="CO4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CP4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CQ4" s="15" t="s">
+      <c r="CF4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CG4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CN4" s="14"/>
+      <c r="CO4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CP4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CQ4" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="CR4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CS4" s="15" t="s">
+      <c r="CR4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CS4" s="14" t="s">
         <v>70</v>
       </c>
       <c r="CT4" t="s">
         <v>234</v>
       </c>
-      <c r="CU4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CV4" s="15" t="s">
+      <c r="CU4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CV4" s="14" t="s">
         <v>70</v>
       </c>
       <c r="CW4" t="s">
         <v>235</v>
       </c>
-      <c r="CX4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CY4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CZ4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="DA4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="DB4" s="15" t="s">
+      <c r="CX4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CY4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CZ4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="DA4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="DB4" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="U5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="V5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="W5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="X5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT5" s="15" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT5" s="14" t="s">
         <v>70</v>
       </c>
       <c r="AU5" t="s">
         <v>236</v>
       </c>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG5" s="15"/>
-      <c r="BH5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BW5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BX5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BY5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BZ5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CA5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CB5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CC5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CD5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CE5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CF5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CG5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CN5" s="15"/>
-      <c r="CO5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CP5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CQ5" s="15"/>
-      <c r="CR5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CS5" s="15" t="s">
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BZ5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CA5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CB5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CC5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CD5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CE5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CF5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CG5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CN5" s="14"/>
+      <c r="CO5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CP5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CQ5" s="14"/>
+      <c r="CR5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CS5" s="14" t="s">
         <v>70</v>
       </c>
       <c r="CT5" t="s">
         <v>237</v>
       </c>
-      <c r="CU5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CV5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CW5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CX5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CY5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CZ5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="DA5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="DB5" s="15" t="s">
+      <c r="CU5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CV5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CW5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CX5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CY5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CZ5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="DA5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="DB5" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:107" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="W6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="X6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG6" s="15"/>
-      <c r="BH6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BW6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BX6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BY6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="BZ6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CA6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CB6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CC6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CD6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CE6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CF6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CG6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CN6" s="15"/>
-      <c r="CO6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CP6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CQ6" s="15"/>
-      <c r="CR6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CS6" s="15" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BZ6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CA6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CB6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CC6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CD6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CE6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CF6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CG6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CN6" s="14"/>
+      <c r="CO6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CP6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CQ6" s="14"/>
+      <c r="CR6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CS6" s="14" t="s">
         <v>70</v>
       </c>
       <c r="CT6" t="s">
         <v>238</v>
       </c>
-      <c r="CU6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CV6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CW6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CX6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CY6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="CZ6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="DA6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="DB6" s="15" t="s">
+      <c r="CU6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CV6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CW6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CX6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CY6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="CZ6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="DA6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="DB6" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3772,205 +3769,205 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="9" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4003,1110 +4000,1110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="13"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="13"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="L9" s="13"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="L10" s="13"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="13"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13" t="s">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="13"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L14" s="13"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13" t="s">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L15" s="13"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13" t="s">
+      <c r="H16" s="12"/>
+      <c r="I16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="13"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="L19" s="13"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13" t="s">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L20" s="13"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13" t="s">
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L21" s="13"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13" t="s">
+      <c r="H22" s="12"/>
+      <c r="I22" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L22" s="13"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L23" s="13"/>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13" t="s">
+      <c r="H24" s="12"/>
+      <c r="I24" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L24" s="13"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13" t="s">
+      <c r="H25" s="12"/>
+      <c r="I25" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L25" s="13"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13" t="s">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13" t="s">
+      <c r="H26" s="12"/>
+      <c r="I26" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L26" s="13"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13" t="s">
+      <c r="H27" s="12"/>
+      <c r="I27" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L27" s="13"/>
+      <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13" t="s">
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13" t="s">
+      <c r="H28" s="12"/>
+      <c r="I28" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L28" s="13"/>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13" t="s">
+      <c r="H29" s="12"/>
+      <c r="I29" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L29" s="13"/>
+      <c r="L29" s="12"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13" t="s">
+      <c r="H30" s="12"/>
+      <c r="I30" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L30" s="13"/>
+      <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13" t="s">
+      <c r="H31" s="12"/>
+      <c r="I31" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L31" s="13"/>
+      <c r="L31" s="12"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13" t="s">
+      <c r="H32" s="12"/>
+      <c r="I32" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L32" s="13"/>
+      <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13" t="s">
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13" t="s">
+      <c r="H33" s="12"/>
+      <c r="I33" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L33" s="13"/>
+      <c r="L33" s="12"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13" t="s">
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13" t="s">
+      <c r="H34" s="12"/>
+      <c r="I34" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="K34" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L34" s="13"/>
+      <c r="L34" s="12"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13" t="s">
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13" t="s">
+      <c r="H35" s="12"/>
+      <c r="I35" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K35" s="13" t="s">
+      <c r="K35" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L35" s="13"/>
+      <c r="L35" s="12"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13" t="s">
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13" t="s">
+      <c r="H36" s="12"/>
+      <c r="I36" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K36" s="13" t="s">
+      <c r="K36" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L36" s="13"/>
+      <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13" t="s">
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13" t="s">
+      <c r="H37" s="12"/>
+      <c r="I37" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="K37" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="L37" s="13"/>
+      <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
+      <c r="B38" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5170,1040 +5167,1040 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="L22" s="13"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="L23" s="13"/>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13" t="s">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13" t="s">
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="L28" s="13"/>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="L29" s="13"/>
+      <c r="L29" s="12"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13" t="s">
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="L33" s="13"/>
+      <c r="L33" s="12"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13" t="s">
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13" t="s">
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13" t="s">
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13" t="s">
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
+      <c r="B38" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
